--- a/biology/Médecine/Misuse_of_Drugs_Act_1971/Misuse_of_Drugs_Act_1971.xlsx
+++ b/biology/Médecine/Misuse_of_Drugs_Act_1971/Misuse_of_Drugs_Act_1971.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Misuse of Drugs Act 1971 est une loi britannique visant à réglementer la possession et l'approvisionnement de certains produits psychotropes généralement désignés comme des drogues, ainsi qu'à favoriser la coopération internationale contre le trafic de ces produits. Concernant la coopération internationale en matière de lutte contre le trafic de ces produits, cette loi s'appuie grandement sur la Convention unique sur les stupéfiants de 1961.
 Ils sont classées selon un ordre allant de A à C, les produits de la classe A étant jugés les plus dangereux.
@@ -514,7 +526,9 @@
           <t>Drogue de classe A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les drogues de classe A sont les plus nocives et celles auxquelles s’appliquent les sanctions les plus sévères. Cette catégorie comprend, entre autres, l’héroïne, la morphine, la méthadone, la cocaïne, l’opium, l’ecstasy, ainsi que les hallucinogènes tels que le LSD. Ainsi que toutes les drogues de catégorie B préparées pour injection. 
 Pour les drogues de classe A, les peines maximales encourues sont les suivantes : 
@@ -548,7 +562,9 @@
           <t>Drogue de classe B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La classe B comprend les opioïdes peu puissants tels la codéine, les stimulants synthétiques (amphétamines) et les sédatifs puissants (barbituriques).
 Pour les drogues de classe B, les peines maximales encourues sont : 
@@ -581,7 +597,9 @@
           <t>Drogue de classe C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La classe C comprend celles qui sont considérées comme moins nocives :
 les tranquillisants ;
